--- a/REF_시험결과집계_20240403/excel_data/시험결과집계ver2.xlsx
+++ b/REF_시험결과집계_20240403/excel_data/시험결과집계ver2.xlsx
@@ -5,12 +5,12 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Desktop\REF_시험결과집계\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Desktop\REF_시험결과집계_20240403\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F987D291-2FAE-4529-AF75-E20AA3F909C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0E64D-7EA6-4A2E-B41E-F2277E6487C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" firstSheet="0" activeTab="2" xr2:uid="{A8ED2583-5D70-4C74-9287-68803395DD4A}"/>
+    <x:workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" firstSheet="0" activeTab="0" xr2:uid="{A8ED2583-5D70-4C74-9287-68803395DD4A}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -1434,9 +1434,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:E47"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A14" sqref="A14 A14:E16"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <x:cols>
@@ -1739,8 +1737,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:H19"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="H15" sqref="H15"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="G14" sqref="G14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2037,20 +2035,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="N19:Q19"/>
+  <x:dimension ref="I19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="I19" sqref="I19"/>
+      <x:selection activeCell="K8" sqref="K8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="8" width="9.125" style="7" customWidth="1"/>
-    <x:col min="9" max="9" width="9.125" style="0" customWidth="1"/>
-    <x:col min="10" max="16384" width="9.125" style="7" customWidth="1"/>
+    <x:col min="1" max="10" width="9.125" style="7" customWidth="1"/>
+    <x:col min="11" max="11" width="9.125" style="0" customWidth="1"/>
+    <x:col min="12" max="16384" width="9.125" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:11">
       <x:c r="A1" s="7" t="s">
         <x:v>91</x:v>
       </x:c>
@@ -2073,7 +2071,7 @@
         <x:v>94</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:9">
+    <x:row r="2" spans="1:11">
       <x:c r="A2" s="7" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -2090,7 +2088,7 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:9">
+    <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -2107,7 +2105,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:9">
+    <x:row r="4" spans="1:11">
       <x:c r="A4" s="7" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -2124,7 +2122,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:9">
+    <x:row r="5" spans="1:11">
       <x:c r="A5" s="7" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -2141,7 +2139,7 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:9">
+    <x:row r="6" spans="1:11">
       <x:c r="A6" s="7" t="s">
         <x:v>66</x:v>
       </x:c>
@@ -2158,7 +2156,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:9">
+    <x:row r="7" spans="1:11">
       <x:c r="A7" s="7" t="s">
         <x:v>70</x:v>
       </x:c>
@@ -2175,24 +2173,30 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:9">
-      <x:c r="A8" s="7" t="s">
+    <x:row r="8" spans="1:11" s="0" customFormat="1">
+      <x:c r="A8" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B8" s="7" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="E8" s="7" t="n">
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="n">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="F8" s="7" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="G8" s="7" t="s">
+      <x:c r="G8" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:9">
+      <x:c r="H8" s="0" t="s"/>
+      <x:c r="I8" s="7" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
       <x:c r="A9" s="7" t="s">
         <x:v>74</x:v>
       </x:c>
@@ -2209,7 +2213,7 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:9">
+    <x:row r="10" spans="1:11">
       <x:c r="A10" s="7" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -2226,7 +2230,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:9">
+    <x:row r="11" spans="1:11">
       <x:c r="A11" s="7" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -2243,7 +2247,7 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:9">
+    <x:row r="12" spans="1:11">
       <x:c r="A12" s="7" t="s">
         <x:v>80</x:v>
       </x:c>
@@ -2260,7 +2264,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:9">
+    <x:row r="13" spans="1:11">
       <x:c r="A13" s="7" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -2277,7 +2281,7 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:9">
+    <x:row r="14" spans="1:11">
       <x:c r="A14" s="7" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -2294,7 +2298,7 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:9">
+    <x:row r="15" spans="1:11">
       <x:c r="A15" s="7" t="s">
         <x:v>86</x:v>
       </x:c>
@@ -2311,7 +2315,7 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:9">
+    <x:row r="16" spans="1:11">
       <x:c r="A16" s="7" t="s">
         <x:v>88</x:v>
       </x:c>
@@ -2328,17 +2332,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:9" s="0" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s"/>
-      <x:c r="F19" s="0" t="s"/>
-      <x:c r="G19" s="0" t="s"/>
-      <x:c r="H19" s="0" t="s"/>
-      <x:c r="I19" s="0" t="s"/>
-    </x:row>
+    <x:row r="19" spans="1:11" x14ac:dyDescent="0.3"/>
   </x:sheetData>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
